--- a/src/main/resources/RewardAmount.xlsx
+++ b/src/main/resources/RewardAmount.xlsx
@@ -479,10 +479,10 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="41.15"/>
@@ -801,7 +801,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
